--- a/RQ1/RQ0_SpreadSheet.xlsx
+++ b/RQ1/RQ0_SpreadSheet.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Piya\Desktop\RESEARCH\Paper Writing Drafts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C17973CB-71C2-4C78-AB27-70DE28E884F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13D0B1E5-202C-44AB-8FE9-5184C6FE4365}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{35B0DEE4-6E6D-420C-A94D-DE9C9A9F48D0}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="RQ1" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="71">
   <si>
     <t>Number of Hints</t>
   </si>
@@ -237,6 +237,18 @@
   </si>
   <si>
     <t>https://chat.openai.com/share/9e86d501-f32e-427a-8f55-d2e04a340e04</t>
+  </si>
+  <si>
+    <t>Repeated Code Presented?</t>
+  </si>
+  <si>
+    <t>Previously passed test failed?</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
@@ -653,19 +665,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E9E9E75-48B3-4620-AEF9-94E7529E5741}">
-  <dimension ref="A1:H70"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A3F8EE6-8464-4F8C-8B12-003F48E01DCB}">
+  <dimension ref="A1:J70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H70"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="35.453125" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -690,8 +699,14 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="155" x14ac:dyDescent="0.35">
+      <c r="I1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="155" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -716,8 +731,14 @@
       <c r="H2" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="155" x14ac:dyDescent="0.35">
+      <c r="I2" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="155" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -742,8 +763,14 @@
       <c r="H3" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="155" x14ac:dyDescent="0.35">
+      <c r="I3" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="155" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -768,8 +795,14 @@
       <c r="H4" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="155" x14ac:dyDescent="0.35">
+      <c r="I4" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="155" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -794,8 +827,14 @@
       <c r="H5" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="155" x14ac:dyDescent="0.35">
+      <c r="I5" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="155" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -820,8 +859,14 @@
       <c r="H6" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="155" x14ac:dyDescent="0.35">
+      <c r="I6" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="155" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -846,8 +891,14 @@
       <c r="H7" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="155" x14ac:dyDescent="0.35">
+      <c r="I7" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="155" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -872,8 +923,14 @@
       <c r="H8" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" ht="155" x14ac:dyDescent="0.35">
+      <c r="I8" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="155" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -898,8 +955,14 @@
       <c r="H9" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" ht="155" x14ac:dyDescent="0.35">
+      <c r="I9" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="155" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -924,8 +987,14 @@
       <c r="H10" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" ht="155" x14ac:dyDescent="0.35">
+      <c r="I10" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="155" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -950,8 +1019,14 @@
       <c r="H11" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" ht="155" x14ac:dyDescent="0.35">
+      <c r="I11" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="155" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -976,8 +1051,14 @@
       <c r="H12" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" ht="155" x14ac:dyDescent="0.35">
+      <c r="I12" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="155" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1002,8 +1083,14 @@
       <c r="H13" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" ht="155" x14ac:dyDescent="0.35">
+      <c r="I13" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="155" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1028,8 +1115,14 @@
       <c r="H14" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" ht="155" x14ac:dyDescent="0.35">
+      <c r="I14" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="155" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1054,8 +1147,14 @@
       <c r="H15" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" ht="155" x14ac:dyDescent="0.35">
+      <c r="I15" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="155" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1080,8 +1179,14 @@
       <c r="H16" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" ht="155" x14ac:dyDescent="0.35">
+      <c r="I16" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="155" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1106,8 +1211,14 @@
       <c r="H17" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" ht="155" x14ac:dyDescent="0.35">
+      <c r="I17" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="155" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1132,8 +1243,14 @@
       <c r="H18" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" ht="155" x14ac:dyDescent="0.35">
+      <c r="I18" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="155" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1158,8 +1275,14 @@
       <c r="H19" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" ht="155" x14ac:dyDescent="0.35">
+      <c r="I19" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="155" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1184,8 +1307,14 @@
       <c r="H20" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" ht="155" x14ac:dyDescent="0.35">
+      <c r="I20" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="155" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1210,8 +1339,14 @@
       <c r="H21" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" ht="155" x14ac:dyDescent="0.35">
+      <c r="I21" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="155" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1236,8 +1371,14 @@
       <c r="H22" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" ht="155" x14ac:dyDescent="0.35">
+      <c r="I22" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="155" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1262,8 +1403,14 @@
       <c r="H23" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" ht="155" x14ac:dyDescent="0.35">
+      <c r="I23" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="155" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1288,8 +1435,14 @@
       <c r="H24" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" ht="155" x14ac:dyDescent="0.35">
+      <c r="I24" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="155" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -1314,8 +1467,14 @@
       <c r="H25" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" ht="155" x14ac:dyDescent="0.35">
+      <c r="I25" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="155" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -1340,8 +1499,14 @@
       <c r="H26" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" ht="155" x14ac:dyDescent="0.35">
+      <c r="I26" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="155" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -1366,8 +1531,14 @@
       <c r="H27" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" ht="155" x14ac:dyDescent="0.35">
+      <c r="I27" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="155" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -1392,8 +1563,14 @@
       <c r="H28" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" ht="155" x14ac:dyDescent="0.35">
+      <c r="I28" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="155" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -1418,8 +1595,14 @@
       <c r="H29" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" ht="155" x14ac:dyDescent="0.35">
+      <c r="I29" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="155" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -1444,8 +1627,14 @@
       <c r="H30" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" ht="155" x14ac:dyDescent="0.35">
+      <c r="I30" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="155" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -1470,8 +1659,14 @@
       <c r="H31" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" ht="155" x14ac:dyDescent="0.35">
+      <c r="I31" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="155" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -1496,8 +1691,14 @@
       <c r="H32" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" ht="155" x14ac:dyDescent="0.35">
+      <c r="I32" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="155" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -1522,8 +1723,14 @@
       <c r="H33" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" ht="155" x14ac:dyDescent="0.35">
+      <c r="I33" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="155" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -1548,8 +1755,14 @@
       <c r="H34" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" ht="155" x14ac:dyDescent="0.35">
+      <c r="I34" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="155" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -1574,8 +1787,14 @@
       <c r="H35" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" ht="155" x14ac:dyDescent="0.35">
+      <c r="I35" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="155" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -1600,8 +1819,14 @@
       <c r="H36" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" ht="155" x14ac:dyDescent="0.35">
+      <c r="I36" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="155" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -1626,8 +1851,14 @@
       <c r="H37" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" ht="155" x14ac:dyDescent="0.35">
+      <c r="I37" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="155" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -1652,8 +1883,14 @@
       <c r="H38" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" ht="155" x14ac:dyDescent="0.35">
+      <c r="I38" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="155" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -1678,8 +1915,14 @@
       <c r="H39" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" ht="155" x14ac:dyDescent="0.35">
+      <c r="I39" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="155" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -1704,8 +1947,14 @@
       <c r="H40" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" ht="155" x14ac:dyDescent="0.35">
+      <c r="I40" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="155" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -1730,8 +1979,14 @@
       <c r="H41" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" ht="155" x14ac:dyDescent="0.35">
+      <c r="I41" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="155" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -1756,8 +2011,14 @@
       <c r="H42" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" ht="155" x14ac:dyDescent="0.35">
+      <c r="I42" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="155" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -1782,8 +2043,14 @@
       <c r="H43" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" ht="155" x14ac:dyDescent="0.35">
+      <c r="I43" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="155" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -1808,8 +2075,14 @@
       <c r="H44" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" ht="155" x14ac:dyDescent="0.35">
+      <c r="I44" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="155" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -1834,8 +2107,14 @@
       <c r="H45" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" ht="155" x14ac:dyDescent="0.35">
+      <c r="I45" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="155" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -1860,8 +2139,14 @@
       <c r="H46" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" ht="155" x14ac:dyDescent="0.35">
+      <c r="I46" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="155" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -1886,8 +2171,14 @@
       <c r="H47" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" ht="155" x14ac:dyDescent="0.35">
+      <c r="I47" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="155" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -1912,8 +2203,14 @@
       <c r="H48" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" ht="155" x14ac:dyDescent="0.35">
+      <c r="I48" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="155" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -1938,8 +2235,14 @@
       <c r="H49" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" ht="155" x14ac:dyDescent="0.35">
+      <c r="I49" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="155" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -1964,8 +2267,14 @@
       <c r="H50" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" ht="145" x14ac:dyDescent="0.35">
+      <c r="I50" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="145" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -1990,8 +2299,14 @@
       <c r="H51" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" ht="155" x14ac:dyDescent="0.35">
+      <c r="I51" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="155" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -2016,8 +2331,14 @@
       <c r="H52" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" ht="155" x14ac:dyDescent="0.35">
+      <c r="I52" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="155" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -2042,8 +2363,14 @@
       <c r="H53" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" ht="155" x14ac:dyDescent="0.35">
+      <c r="I53" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="155" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -2068,8 +2395,14 @@
       <c r="H54" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" ht="155" x14ac:dyDescent="0.35">
+      <c r="I54" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="155" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -2094,8 +2427,14 @@
       <c r="H55" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" ht="155" x14ac:dyDescent="0.35">
+      <c r="I55" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="155" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -2120,8 +2459,14 @@
       <c r="H56" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" ht="145" x14ac:dyDescent="0.35">
+      <c r="I56" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="145" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -2146,8 +2491,14 @@
       <c r="H57" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" ht="155" x14ac:dyDescent="0.35">
+      <c r="I57" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="155" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -2172,8 +2523,14 @@
       <c r="H58" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" ht="155" x14ac:dyDescent="0.35">
+      <c r="I58" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" ht="155" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>59</v>
       </c>
@@ -2198,8 +2555,14 @@
       <c r="H59" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" ht="155" x14ac:dyDescent="0.35">
+      <c r="I59" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="155" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>60</v>
       </c>
@@ -2224,8 +2587,14 @@
       <c r="H60" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" ht="145" x14ac:dyDescent="0.35">
+      <c r="I60" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="145" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>61</v>
       </c>
@@ -2250,8 +2619,14 @@
       <c r="H61" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="I61" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>62</v>
       </c>
@@ -2276,8 +2651,14 @@
       <c r="H62" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" ht="155" x14ac:dyDescent="0.35">
+      <c r="I62" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="155" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>63</v>
       </c>
@@ -2302,8 +2683,14 @@
       <c r="H63" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" ht="155" x14ac:dyDescent="0.35">
+      <c r="I63" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" ht="155" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>64</v>
       </c>
@@ -2328,8 +2715,14 @@
       <c r="H64" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" ht="155" x14ac:dyDescent="0.35">
+      <c r="I64" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" ht="155" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>65</v>
       </c>
@@ -2354,8 +2747,14 @@
       <c r="H65" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" ht="155" x14ac:dyDescent="0.35">
+      <c r="I65" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" ht="155" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>66</v>
       </c>
@@ -2380,8 +2779,14 @@
       <c r="H66" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" ht="155" x14ac:dyDescent="0.35">
+      <c r="I66" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" ht="155" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>67</v>
       </c>
@@ -2406,8 +2811,14 @@
       <c r="H67" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" ht="155" x14ac:dyDescent="0.35">
+      <c r="I67" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" ht="155" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>68</v>
       </c>
@@ -2432,8 +2843,14 @@
       <c r="H68" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" ht="155" x14ac:dyDescent="0.35">
+      <c r="I68" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J68" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" ht="155" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>69</v>
       </c>
@@ -2458,8 +2875,14 @@
       <c r="H69" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" ht="155" x14ac:dyDescent="0.35">
+      <c r="I69" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J69" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" ht="155" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>70</v>
       </c>
@@ -2484,13 +2907,19 @@
       <c r="H70" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="I70" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J70" s="1" t="s">
+        <v>70</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C51" r:id="rId1" xr:uid="{C06E03F1-922D-4C35-BD3F-C1B6DA969006}"/>
-    <hyperlink ref="C57" r:id="rId2" xr:uid="{4B4AFEEF-C991-48CD-B97F-7F024A0FEE54}"/>
-    <hyperlink ref="C61" r:id="rId3" xr:uid="{7F40F8C5-D2D6-47C6-BF5B-1C19CDD4D69F}"/>
-    <hyperlink ref="C62" r:id="rId4" xr:uid="{A60AE2E0-545E-4C4F-B242-F787F63BB40D}"/>
+    <hyperlink ref="C51" r:id="rId1" xr:uid="{28577868-380D-40B4-BE32-1743B8F09B69}"/>
+    <hyperlink ref="C57" r:id="rId2" xr:uid="{593CBBC5-DD90-40A3-BAB1-64EF1B1194DA}"/>
+    <hyperlink ref="C61" r:id="rId3" xr:uid="{D10FAC01-DF4D-4D8D-90FD-0381BD34C953}"/>
+    <hyperlink ref="C62" r:id="rId4" xr:uid="{2EB42188-5BAD-4D7F-9E8D-1155843DCE62}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
